--- a/Tiempos_Escenas.xlsx
+++ b/Tiempos_Escenas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Tesis y portafolio\preproduccion\penciltest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pablo\Andrea\USFQ\Titulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EDECE4-E49C-4A27-AE23-C2F77E0EFF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB198E-24BB-4238-A6FE-46E8B7131704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2957" yWindow="3720" windowWidth="24686" windowHeight="13149" xr2:uid="{7479791D-AF98-4B48-9BA8-5A6EBE4D9B1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7479791D-AF98-4B48-9BA8-5A6EBE4D9B1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Config" sheetId="3" r:id="rId1"/>
+    <sheet name="Escenas PencilTest" sheetId="1" r:id="rId2"/>
+    <sheet name="Gant" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="105">
   <si>
     <t>Escenas</t>
   </si>
@@ -301,6 +302,57 @@
   </si>
   <si>
     <t>bicho pastillas</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Begin date</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>Predecessors</t>
+  </si>
+  <si>
+    <t>Outline number</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Assignments</t>
+  </si>
+  <si>
+    <t>Task color</t>
+  </si>
+  <si>
+    <t>Web Link</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Begin Date:</t>
   </si>
 </sst>
 </file>
@@ -463,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,15 +561,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -592,47 +683,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -928,11 +978,11 @@
     <tableColumn id="2" xr3:uid="{366908A8-A1EE-4A6A-84F5-5A7E1B687F76}" name="Escenas" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{F1850ADF-8A29-4D65-A2DF-6BCB825069D9}" name="Frames" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{8D6B2F7F-5281-49B3-9FFD-4F7E12628708}" name="Seg" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{445C2CF8-A5A5-4A8A-B64A-B0A91BA13D34}" name="Tiempo" dataDxfId="3">
-      <calculatedColumnFormula>_xlfn.CONCAT(TEXT(INT(D2/60),"00"),":",TEXT(MOD(D2,60),"00.00"))</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{445C2CF8-A5A5-4A8A-B64A-B0A91BA13D34}" name="Tiempo" dataDxfId="0">
+      <calculatedColumnFormula>IF(D2=0,"",_xlfn.CONCAT(TEXT(INT(D2/60),"00"),":",TEXT(MOD(D2,60),"00.00")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53E24129-A6A4-4D4A-9FB0-A2036B18656E}" name="SegTr" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{89D4FAB2-8B5E-4C99-A020-3A3C601CAF35}" name="Transcurrido" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{53E24129-A6A4-4D4A-9FB0-A2036B18656E}" name="SegTr" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{89D4FAB2-8B5E-4C99-A020-3A3C601CAF35}" name="Transcurrido" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Escenas_style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1234,24 +1284,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3402CC-C94F-4082-A5DC-0A7FA565CB50}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="17">
+        <v>45089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C6AA15-B2AD-42A1-BDDC-F5ADA737CF93}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.07421875" customWidth="1"/>
-    <col min="2" max="2" width="19.53515625" customWidth="1"/>
-    <col min="4" max="4" width="8.23046875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="8.23046875" customWidth="1"/>
-    <col min="7" max="7" width="13.07421875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -1274,23 +1352,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="5">
         <f>C2/24</f>
         <v>0</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>_xlfn.CONCAT(TEXT(INT(D2/60),"00"),":",TEXT(MOD(D2,60),"00.00"))</f>
-        <v>00:00.00</v>
+        <f t="shared" ref="E2:E33" si="0">IF(D2=0,"",_xlfn.CONCAT(TEXT(INT(D2/60),"00"),":",TEXT(MOD(D2,60),"00.00")))</f>
+        <v/>
       </c>
       <c r="F2" s="5">
         <f>D2</f>
@@ -1301,7 +1377,7 @@
         <v>00:00.00</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1316,7 +1392,7 @@
         <v>4.541666666666667</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E82" si="0">_xlfn.CONCAT(TEXT(INT(D3/60),"00"),":",TEXT(MOD(D3,60),"00.00"))</f>
+        <f t="shared" si="0"/>
         <v>00:04.54</v>
       </c>
       <c r="F3" s="5">
@@ -1324,11 +1400,11 @@
         <v>4.541666666666667</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f>_xlfn.CONCAT(TEXT(INT(F3/60),"00"),":",TEXT(MOD(F3,60),"00.00"))</f>
+        <f>IF(D3=0,"",_xlfn.CONCAT(TEXT(INT(F3/60),"00"),":",TEXT(MOD(F3,60),"00.00")))</f>
         <v>00:04.54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1347,31 +1423,29 @@
         <v>00:02.92</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F25" si="2">F3+D4</f>
+        <f t="shared" ref="F4:F67" si="2">F3+D4</f>
         <v>7.4583333333333339</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f t="shared" ref="G4:G42" si="3">_xlfn.CONCAT(TEXT(INT(F4/60),"00"),":",TEXT(MOD(F4,60),"00.00"))</f>
+        <f t="shared" ref="G4:G67" si="3">IF(D4=0,"",_xlfn.CONCAT(TEXT(INT(F4/60),"00"),":",TEXT(MOD(F4,60),"00.00")))</f>
         <v>00:07.46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
@@ -1379,10 +1453,10 @@
       </c>
       <c r="G5" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:07.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1409,23 +1483,21 @@
         <v>00:10.13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
@@ -1433,10 +1505,10 @@
       </c>
       <c r="G7" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:10.13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1463,7 +1535,7 @@
         <v>00:23.46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1490,23 +1562,21 @@
         <v>00:26.71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
@@ -1514,26 +1584,24 @@
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:26.71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
@@ -1541,10 +1609,10 @@
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:26.71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1571,23 +1639,21 @@
         <v>00:29.38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
@@ -1595,10 +1661,10 @@
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:29.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1625,7 +1691,7 @@
         <v>00:32.71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1652,7 +1718,7 @@
         <v>00:37.79</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1679,23 +1745,21 @@
         <v>00:40.96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
@@ -1703,10 +1767,10 @@
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:40.96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1733,7 +1797,7 @@
         <v>00:42.75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1760,7 +1824,7 @@
         <v>00:48.33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1787,7 +1851,7 @@
         <v>00:54.79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1814,7 +1878,7 @@
         <v>00:59.67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1841,23 +1905,21 @@
         <v>01:02.00</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="2"/>
@@ -1865,10 +1927,10 @@
       </c>
       <c r="G23" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:02.00</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1895,7 +1957,7 @@
         <v>01:05.63</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1922,7 +1984,7 @@
         <v>01:06.92</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1941,7 +2003,7 @@
         <v>00:04.58</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" ref="F26:F41" si="4">F25+D26</f>
+        <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
       <c r="G26" s="7" t="str">
@@ -1949,7 +2011,7 @@
         <v>01:11.50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1968,7 +2030,7 @@
         <v>00:06.92</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>78.416666666666671</v>
       </c>
       <c r="G27" s="7" t="str">
@@ -1976,7 +2038,7 @@
         <v>01:18.42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1995,7 +2057,7 @@
         <v>00:02.96</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>81.375</v>
       </c>
       <c r="G28" s="7" t="str">
@@ -2003,7 +2065,7 @@
         <v>01:21.38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2022,7 +2084,7 @@
         <v>00:02.13</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>83.5</v>
       </c>
       <c r="G29" s="7" t="str">
@@ -2030,34 +2092,32 @@
         <v>01:23.50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>83.5</v>
       </c>
       <c r="G30" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:23.50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2076,7 +2136,7 @@
         <v>00:01.38</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G31" s="7" t="str">
@@ -2084,411 +2144,389 @@
         <v>01:24.88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G32" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G33" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <f t="shared" ref="E34:E65" si="4">IF(D34=0,"",_xlfn.CONCAT(TEXT(INT(D34/60),"00"),":",TEXT(MOD(D34,60),"00.00")))</f>
+        <v/>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G34" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G35" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G36" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G37" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G38" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G39" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G40" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G41" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F42" s="5">
-        <f>F41+D42</f>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G42" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="17">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="5">
         <f t="shared" ref="D43:D81" si="5">C43/24</f>
         <v>0</v>
       </c>
       <c r="E43" s="3" t="str">
-        <f t="shared" ref="E43:E81" si="6">_xlfn.CONCAT(TEXT(INT(D43/60),"00"),":",TEXT(MOD(D43,60),"00.00"))</f>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F43" s="5">
-        <f t="shared" ref="F43:F81" si="7">F42+D43</f>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G43" s="7" t="str">
-        <f t="shared" ref="G43:G81" si="8">_xlfn.CONCAT(TEXT(INT(F43/60),"00"),":",TEXT(MOD(F43,60),"00.00"))</f>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E44" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G44" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E45" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G45" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>84.875</v>
       </c>
       <c r="G46" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="4">
         <v>116</v>
       </c>
       <c r="D47" s="5">
@@ -2496,26 +2534,26 @@
         <v>4.833333333333333</v>
       </c>
       <c r="E47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>00:04.83</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>89.708333333333329</v>
       </c>
       <c r="G47" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>01:29.71</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="4">
         <v>39</v>
       </c>
       <c r="D48" s="5">
@@ -2523,26 +2561,26 @@
         <v>1.625</v>
       </c>
       <c r="E48" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>00:01.63</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>91.333333333333329</v>
       </c>
       <c r="G48" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>01:31.33</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="17">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="4">
         <v>95</v>
       </c>
       <c r="D49" s="5">
@@ -2550,126 +2588,126 @@
         <v>3.9583333333333335</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>00:03.96</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>95.291666666666657</v>
       </c>
       <c r="G49" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>01:35.29</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>95.291666666666657</v>
       </c>
       <c r="G50" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:35.29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="18"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E51" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>95.291666666666657</v>
       </c>
       <c r="G51" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:35.29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="18"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E52" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>95.291666666666657</v>
       </c>
       <c r="G52" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:35.29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="18"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>95.291666666666657</v>
       </c>
       <c r="G53" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:35.29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="4">
         <v>34</v>
       </c>
       <c r="D54" s="5">
@@ -2677,383 +2715,383 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>00:01.42</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G54" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>01:36.71</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="17">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="18"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G55" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="18"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G56" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="18"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G57" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="18"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G58" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G59" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="18"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G60" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G61" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="18"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E62" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G62" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="18"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E63" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G63" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="18"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E64" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G64" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E65" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G65" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="18"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <f t="shared" ref="E66:E97" si="6">IF(D66=0,"",_xlfn.CONCAT(TEXT(INT(D66/60),"00"),":",TEXT(MOD(D66,60),"00.00")))</f>
+        <v/>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G66" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A67" s="17">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="18"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E67" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>96.708333333333329</v>
       </c>
       <c r="G67" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="18"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E68" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F68:F81" si="7">F67+D68</f>
         <v>96.708333333333329</v>
       </c>
       <c r="G68" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A69" s="17">
+        <f t="shared" ref="G68:G81" si="8">IF(D68=0,"",_xlfn.CONCAT(TEXT(INT(F68/60),"00"),":",TEXT(MOD(F68,60),"00.00")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="18"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E69" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="7"/>
@@ -3061,24 +3099,24 @@
       </c>
       <c r="G69" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="18"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E70" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="7"/>
@@ -3086,24 +3124,24 @@
       </c>
       <c r="G70" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A71" s="17">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="18"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E71" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="7"/>
@@ -3111,24 +3149,24 @@
       </c>
       <c r="G71" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="18"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E72" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F72" s="5">
         <f t="shared" si="7"/>
@@ -3136,24 +3174,24 @@
       </c>
       <c r="G72" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73" s="17">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="18"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E73" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F73" s="5">
         <f t="shared" si="7"/>
@@ -3161,24 +3199,24 @@
       </c>
       <c r="G73" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="18"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E74" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F74" s="5">
         <f t="shared" si="7"/>
@@ -3186,24 +3224,24 @@
       </c>
       <c r="G74" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A75" s="17">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="18"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E75" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F75" s="5">
         <f t="shared" si="7"/>
@@ -3211,24 +3249,24 @@
       </c>
       <c r="G75" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="18"/>
+      <c r="C76" s="4"/>
       <c r="D76" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E76" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F76" s="5">
         <f t="shared" si="7"/>
@@ -3236,24 +3274,24 @@
       </c>
       <c r="G76" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A77" s="17">
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="18"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E77" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F77" s="5">
         <f t="shared" si="7"/>
@@ -3261,24 +3299,24 @@
       </c>
       <c r="G77" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="18"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E78" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F78" s="5">
         <f t="shared" si="7"/>
@@ -3286,24 +3324,24 @@
       </c>
       <c r="G78" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A79" s="17">
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="18"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E79" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="7"/>
@@ -3311,24 +3349,24 @@
       </c>
       <c r="G79" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="18"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E80" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="7"/>
@@ -3336,24 +3374,24 @@
       </c>
       <c r="G80" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A81" s="17">
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="18"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E81" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>00:00.00</v>
+        <v/>
       </c>
       <c r="F81" s="5">
         <f t="shared" si="7"/>
@@ -3361,10 +3399,10 @@
       </c>
       <c r="G81" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <f>COUNT(A2:A81)</f>
         <v>80</v>
@@ -3381,7 +3419,7 @@
         <v>84.875</v>
       </c>
       <c r="E82" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>01:24.88</v>
       </c>
       <c r="F82" s="13"/>
@@ -3389,13 +3427,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C81">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F2:F25 F26:F42" formula="1"/>
+    <ignoredError sqref="F2:F4 F5:F81" formula="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3403,14 +3441,3639 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9108806-9AD7-40F4-8E2A-563951208A6D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:O81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="9" max="10" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Introducción pastilla</v>
+      </c>
+      <c r="C2" s="17">
+        <f>Config!B2</f>
+        <v>45089</v>
+      </c>
+      <c r="D2" s="17">
+        <f>C2+E2</f>
+        <v>45090</v>
+      </c>
+      <c r="E2">
+        <f>IF(P2=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Doc leyendo</v>
+      </c>
+      <c r="C3" s="17">
+        <f>D2</f>
+        <v>45090</v>
+      </c>
+      <c r="D3" s="17">
+        <f>C3+E3</f>
+        <v>45090</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">IF(P3=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3">
+        <f>J2</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="1">A3</f>
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>suena el teléfono</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" ref="C4:C67" si="2">D3</f>
+        <v>45090</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" ref="D4:D67" si="3">C4+E4</f>
+        <v>45090</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="4">J3</f>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>secretaria</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" si="2"/>
+        <v>45090</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="3"/>
+        <v>45091</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>doc contesta</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="2"/>
+        <v>45091</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="3"/>
+        <v>45091</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Perilla de la puerta</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="2"/>
+        <v>45091</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="3"/>
+        <v>45092</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>entra la paciente</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="2"/>
+        <v>45092</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="3"/>
+        <v>45092</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>bichos 1</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" si="2"/>
+        <v>45092</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="3"/>
+        <v>45092</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>gira la cabeza</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="2"/>
+        <v>45092</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="3"/>
+        <v>45093</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>bichos 2</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" si="2"/>
+        <v>45093</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="3"/>
+        <v>45094</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>bichos 3</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" si="2"/>
+        <v>45094</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="3"/>
+        <v>45094</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Doc la despierta</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" si="2"/>
+        <v>45094</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="3"/>
+        <v>45095</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Puede sentarse</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" si="2"/>
+        <v>45095</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="3"/>
+        <v>45095</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Camina a sentarse</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="2"/>
+        <v>45095</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="3"/>
+        <v>45095</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>En que puedo ayudarle</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" si="2"/>
+        <v>45095</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="3"/>
+        <v>45095</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J79" si="5">A16</f>
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>veo gente muerta</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" si="2"/>
+        <v>45095</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="3"/>
+        <v>45096</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Doc asiente</v>
+      </c>
+      <c r="C18" s="17">
+        <f t="shared" si="2"/>
+        <v>45096</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" si="3"/>
+        <v>45096</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Suena el celular</v>
+      </c>
+      <c r="C19" s="17">
+        <f t="shared" si="2"/>
+        <v>45096</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="3"/>
+        <v>45096</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Espere un momento</v>
+      </c>
+      <c r="C20" s="17">
+        <f t="shared" si="2"/>
+        <v>45096</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" si="3"/>
+        <v>45096</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>ahh..ok?</v>
+      </c>
+      <c r="C21" s="17">
+        <f t="shared" si="2"/>
+        <v>45096</v>
+      </c>
+      <c r="D21" s="17">
+        <f t="shared" si="3"/>
+        <v>45096</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>bichos 4</v>
+      </c>
+      <c r="C22" s="17">
+        <f t="shared" si="2"/>
+        <v>45096</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="3"/>
+        <v>45096</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="P22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Paciente se asusta</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" si="2"/>
+        <v>45096</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="3"/>
+        <v>45097</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Shhht</v>
+      </c>
+      <c r="C24" s="17">
+        <f t="shared" si="2"/>
+        <v>45097</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" si="3"/>
+        <v>45097</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="P24">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>un momento</v>
+      </c>
+      <c r="C25" s="17">
+        <f t="shared" si="2"/>
+        <v>45097</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="3"/>
+        <v>45097</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="P25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Salen dos bichos</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" si="2"/>
+        <v>45097</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="3"/>
+        <v>45097</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Perorata del Doc</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" si="2"/>
+        <v>45097</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="3"/>
+        <v>45097</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="P27">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Paciente escucha</v>
+      </c>
+      <c r="C28" s="17">
+        <f t="shared" si="2"/>
+        <v>45097</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" si="3"/>
+        <v>45097</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="P28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Perorata del Doc 2</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" si="2"/>
+        <v>45097</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="3"/>
+        <v>45097</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="P29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Cajón de pastillas</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="2"/>
+        <v>45097</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="3"/>
+        <v>45098</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Que?</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="2"/>
+        <v>45098</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="3"/>
+        <v>45098</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="P31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Paciente insiste1</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="2"/>
+        <v>45098</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="3"/>
+        <v>45099</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Paciente insiste2</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" si="2"/>
+        <v>45099</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="3"/>
+        <v>45100</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Paciente insiste3</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="2"/>
+        <v>45100</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="3"/>
+        <v>45101</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Mini bicho</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" si="2"/>
+        <v>45101</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="3"/>
+        <v>45102</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Paciente se interrumpe</v>
+      </c>
+      <c r="C36" s="17">
+        <f t="shared" si="2"/>
+        <v>45102</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="3"/>
+        <v>45103</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>bicho grande</v>
+      </c>
+      <c r="C37" s="17">
+        <f t="shared" si="2"/>
+        <v>45103</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="3"/>
+        <v>45104</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>paciente retrocede</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" si="2"/>
+        <v>45104</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="3"/>
+        <v>45105</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Advertencia</v>
+      </c>
+      <c r="C39" s="17">
+        <f t="shared" si="2"/>
+        <v>45105</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="3"/>
+        <v>45106</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>no hace caso</v>
+      </c>
+      <c r="C40" s="17">
+        <f t="shared" si="2"/>
+        <v>45106</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="3"/>
+        <v>45107</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>paciente esta nerviosa</v>
+      </c>
+      <c r="C41" s="17">
+        <f t="shared" si="2"/>
+        <v>45107</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="3"/>
+        <v>45108</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>bicho saca un brazo</v>
+      </c>
+      <c r="C42" s="17">
+        <f t="shared" si="2"/>
+        <v>45108</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="3"/>
+        <v>45109</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>plano garra</v>
+      </c>
+      <c r="C43" s="17">
+        <f t="shared" si="2"/>
+        <v>45109</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="3"/>
+        <v>45110</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>plano ojos paciente</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="2"/>
+        <v>45110</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="3"/>
+        <v>45111</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>paciente al rescate</v>
+      </c>
+      <c r="C45" s="17">
+        <f t="shared" si="2"/>
+        <v>45111</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="3"/>
+        <v>45112</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>caen al piso</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" si="2"/>
+        <v>45112</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="3"/>
+        <v>45113</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Doc se levanta 1</v>
+      </c>
+      <c r="C47" s="17">
+        <f t="shared" si="2"/>
+        <v>45113</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="3"/>
+        <v>45113</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="P47">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Recoge sus lentes</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" si="2"/>
+        <v>45113</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="3"/>
+        <v>45113</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="P48">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Doc se levanta 2</v>
+      </c>
+      <c r="C49" s="17">
+        <f t="shared" si="2"/>
+        <v>45113</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="3"/>
+        <v>45113</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="P49">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>plano ojos doc</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" si="2"/>
+        <v>45113</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="3"/>
+        <v>45114</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Paneo bicho</v>
+      </c>
+      <c r="C51" s="17">
+        <f t="shared" si="2"/>
+        <v>45114</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="3"/>
+        <v>45115</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Gritan</v>
+      </c>
+      <c r="C52" s="17">
+        <f t="shared" si="2"/>
+        <v>45115</v>
+      </c>
+      <c r="D52" s="17">
+        <f t="shared" si="3"/>
+        <v>45116</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Se levantan</v>
+      </c>
+      <c r="C53" s="17">
+        <f t="shared" si="2"/>
+        <v>45116</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="3"/>
+        <v>45117</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Corren</v>
+      </c>
+      <c r="C54" s="17">
+        <f t="shared" si="2"/>
+        <v>45117</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="3"/>
+        <v>45117</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="P54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Pasillo 1</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" si="2"/>
+        <v>45117</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="3"/>
+        <v>45118</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>viene el bicho</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="2"/>
+        <v>45118</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="3"/>
+        <v>45119</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Persecución</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" si="2"/>
+        <v>45119</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="3"/>
+        <v>45120</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Persecución a</v>
+      </c>
+      <c r="C58" s="17">
+        <f t="shared" si="2"/>
+        <v>45120</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" si="3"/>
+        <v>45121</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>pasillo 2</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" si="2"/>
+        <v>45121</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="3"/>
+        <v>45122</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Persecución b</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" si="2"/>
+        <v>45122</v>
+      </c>
+      <c r="D60" s="17">
+        <f t="shared" si="3"/>
+        <v>45123</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Persecución c</v>
+      </c>
+      <c r="C61" s="17">
+        <f t="shared" si="2"/>
+        <v>45123</v>
+      </c>
+      <c r="D61" s="17">
+        <f t="shared" si="3"/>
+        <v>45124</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>103</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>pasillo 3</v>
+      </c>
+      <c r="C62" s="17">
+        <f t="shared" si="2"/>
+        <v>45124</v>
+      </c>
+      <c r="D62" s="17">
+        <f t="shared" si="3"/>
+        <v>45125</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>103</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Sala de espera</v>
+      </c>
+      <c r="C63" s="17">
+        <f t="shared" si="2"/>
+        <v>45125</v>
+      </c>
+      <c r="D63" s="17">
+        <f t="shared" si="3"/>
+        <v>45126</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>103</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>caen 2</v>
+      </c>
+      <c r="C64" s="17">
+        <f t="shared" si="2"/>
+        <v>45126</v>
+      </c>
+      <c r="D64" s="17">
+        <f t="shared" si="3"/>
+        <v>45127</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>64</v>
+      </c>
+      <c r="B65" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Jadeo</v>
+      </c>
+      <c r="C65" s="17">
+        <f t="shared" si="2"/>
+        <v>45127</v>
+      </c>
+      <c r="D65" s="17">
+        <f t="shared" si="3"/>
+        <v>45128</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>65</v>
+      </c>
+      <c r="B66" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Pacientes1</v>
+      </c>
+      <c r="C66" s="17">
+        <f t="shared" si="2"/>
+        <v>45128</v>
+      </c>
+      <c r="D66" s="17">
+        <f t="shared" si="3"/>
+        <v>45129</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>103</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Loquitos</v>
+      </c>
+      <c r="C67" s="17">
+        <f t="shared" si="2"/>
+        <v>45129</v>
+      </c>
+      <c r="D67" s="17">
+        <f t="shared" si="3"/>
+        <v>45130</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E81" si="6">IF(P67=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Pacientes2</v>
+      </c>
+      <c r="C68" s="17">
+        <f t="shared" ref="C68:C81" si="7">D67</f>
+        <v>45130</v>
+      </c>
+      <c r="D68" s="17">
+        <f t="shared" ref="D68:D81" si="8">C68+E68</f>
+        <v>45131</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>103</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I81" si="9">J67</f>
+        <v>66</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>68</v>
+      </c>
+      <c r="B69" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Silencio incomodo1</v>
+      </c>
+      <c r="C69" s="17">
+        <f t="shared" si="7"/>
+        <v>45131</v>
+      </c>
+      <c r="D69" s="17">
+        <f t="shared" si="8"/>
+        <v>45132</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>103</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>69</v>
+      </c>
+      <c r="B70" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Silencio incomodo2</v>
+      </c>
+      <c r="C70" s="17">
+        <f t="shared" si="7"/>
+        <v>45132</v>
+      </c>
+      <c r="D70" s="17">
+        <f t="shared" si="8"/>
+        <v>45133</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>103</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>70</v>
+      </c>
+      <c r="B71" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Consultorio</v>
+      </c>
+      <c r="C71" s="17">
+        <f t="shared" si="7"/>
+        <v>45133</v>
+      </c>
+      <c r="D71" s="17">
+        <f t="shared" si="8"/>
+        <v>45134</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>71</v>
+      </c>
+      <c r="B72" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v xml:space="preserve"> regreso al consultorio</v>
+      </c>
+      <c r="C72" s="17">
+        <f t="shared" si="7"/>
+        <v>45134</v>
+      </c>
+      <c r="D72" s="17">
+        <f t="shared" si="8"/>
+        <v>45135</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>103</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>72</v>
+      </c>
+      <c r="B73" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Dialogo paciente1</v>
+      </c>
+      <c r="C73" s="17">
+        <f t="shared" si="7"/>
+        <v>45135</v>
+      </c>
+      <c r="D73" s="17">
+        <f t="shared" si="8"/>
+        <v>45136</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>103</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>73</v>
+      </c>
+      <c r="B74" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Dialogo paciente2</v>
+      </c>
+      <c r="C74" s="17">
+        <f t="shared" si="7"/>
+        <v>45136</v>
+      </c>
+      <c r="D74" s="17">
+        <f t="shared" si="8"/>
+        <v>45137</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>74</v>
+      </c>
+      <c r="B75" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Se hace el loco</v>
+      </c>
+      <c r="C75" s="17">
+        <f t="shared" si="7"/>
+        <v>45137</v>
+      </c>
+      <c r="D75" s="17">
+        <f t="shared" si="8"/>
+        <v>45138</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>103</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>75</v>
+      </c>
+      <c r="B76" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>puff</v>
+      </c>
+      <c r="C76" s="17">
+        <f t="shared" si="7"/>
+        <v>45138</v>
+      </c>
+      <c r="D76" s="17">
+        <f t="shared" si="8"/>
+        <v>45139</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>103</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>76</v>
+      </c>
+      <c r="B77" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>No pasó nada</v>
+      </c>
+      <c r="C77" s="17">
+        <f t="shared" si="7"/>
+        <v>45139</v>
+      </c>
+      <c r="D77" s="17">
+        <f t="shared" si="8"/>
+        <v>45140</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>103</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>77</v>
+      </c>
+      <c r="B78" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>Pastillas</v>
+      </c>
+      <c r="C78" s="17">
+        <f t="shared" si="7"/>
+        <v>45140</v>
+      </c>
+      <c r="D78" s="17">
+        <f t="shared" si="8"/>
+        <v>45141</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>78</v>
+      </c>
+      <c r="B79" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>plano de los dos1</v>
+      </c>
+      <c r="C79" s="17">
+        <f t="shared" si="7"/>
+        <v>45141</v>
+      </c>
+      <c r="D79" s="17">
+        <f t="shared" si="8"/>
+        <v>45142</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>103</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>79</v>
+      </c>
+      <c r="B80" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>bicho pastillas</v>
+      </c>
+      <c r="C80" s="17">
+        <f t="shared" si="7"/>
+        <v>45142</v>
+      </c>
+      <c r="D80" s="17">
+        <f t="shared" si="8"/>
+        <v>45143</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ref="J80:J81" si="10">A80</f>
+        <v>79</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>80</v>
+      </c>
+      <c r="B81" t="str">
+        <f>Table2[[#This Row],[Escenas]]</f>
+        <v>plano de los dos2</v>
+      </c>
+      <c r="C81" s="17">
+        <f t="shared" si="7"/>
+        <v>45143</v>
+      </c>
+      <c r="D81" s="17">
+        <f t="shared" si="8"/>
+        <v>45144</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tiempos_Escenas.xlsx
+++ b/Tiempos_Escenas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pablo\Andrea\USFQ\Titulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB198E-24BB-4238-A6FE-46E8B7131704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905B96A1-4E9F-41AB-A71C-ADC4F6E8BD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7479791D-AF98-4B48-9BA8-5A6EBE4D9B1A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="107">
   <si>
     <t>Escenas</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Begin Date:</t>
+  </si>
+  <si>
+    <t>CleanUp</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,11 +568,67 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -584,40 +646,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -683,6 +712,48 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -870,6 +941,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -879,13 +957,6 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -929,6 +1000,119 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -954,9 +1138,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Escenas_style" pivot="0" count="3" xr9:uid="{2A99205D-6212-4C05-8828-38A2C5030BE6}">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="totalRow" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -971,18 +1155,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D524042-5AAD-4EFE-A25F-7BF55D11B420}" name="Table2" displayName="Table2" ref="A1:G82" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:G82" xr:uid="{8D524042-5AAD-4EFE-A25F-7BF55D11B420}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EEB0F2DB-5A60-45E2-B42A-7F3A777A60FD}" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{366908A8-A1EE-4A6A-84F5-5A7E1B687F76}" name="Escenas" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F1850ADF-8A29-4D65-A2DF-6BCB825069D9}" name="Frames" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8D6B2F7F-5281-49B3-9FFD-4F7E12628708}" name="Seg" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{445C2CF8-A5A5-4A8A-B64A-B0A91BA13D34}" name="Tiempo" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D524042-5AAD-4EFE-A25F-7BF55D11B420}" name="Table2" displayName="Table2" ref="A1:H82" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:H82" xr:uid="{8D524042-5AAD-4EFE-A25F-7BF55D11B420}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{EEB0F2DB-5A60-45E2-B42A-7F3A777A60FD}" name="Column1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{366908A8-A1EE-4A6A-84F5-5A7E1B687F76}" name="Escenas" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F1850ADF-8A29-4D65-A2DF-6BCB825069D9}" name="Frames" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8D6B2F7F-5281-49B3-9FFD-4F7E12628708}" name="Seg" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{445C2CF8-A5A5-4A8A-B64A-B0A91BA13D34}" name="Tiempo" dataDxfId="8">
       <calculatedColumnFormula>IF(D2=0,"",_xlfn.CONCAT(TEXT(INT(D2/60),"00"),":",TEXT(MOD(D2,60),"00.00")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53E24129-A6A4-4D4A-9FB0-A2036B18656E}" name="SegTr" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{89D4FAB2-8B5E-4C99-A020-3A3C601CAF35}" name="Transcurrido" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{53E24129-A6A4-4D4A-9FB0-A2036B18656E}" name="SegTr" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{89D4FAB2-8B5E-4C99-A020-3A3C601CAF35}" name="Transcurrido" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{521AEA72-C192-4798-A8AA-4A0EA4F73489}" name="CleanUp" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Escenas_style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1312,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C6AA15-B2AD-42A1-BDDC-F5ADA737CF93}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,10 +1511,11 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="8.21875" customWidth="1"/>
     <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -1351,8 +1537,11 @@
       <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1376,8 +1565,10 @@
         <f>_xlfn.CONCAT(TEXT(INT(F2/60),"00"),":",TEXT(MOD(F2,60),"00.00"))</f>
         <v>00:00.00</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1403,8 +1594,9 @@
         <f>IF(D3=0,"",_xlfn.CONCAT(TEXT(INT(F3/60),"00"),":",TEXT(MOD(F3,60),"00.00")))</f>
         <v>00:04.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1430,33 +1622,37 @@
         <f t="shared" ref="G4:G67" si="3">IF(D4=0,"",_xlfn.CONCAT(TEXT(INT(F4/60),"00"),":",TEXT(MOD(F4,60),"00.00")))</f>
         <v>00:07.46</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>41</v>
+      </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7083333333333333</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00:01.71</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>7.4583333333333339</v>
+        <v>9.1666666666666679</v>
       </c>
       <c r="G5" s="7" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:09.17</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1476,14 +1672,15 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>10.125</v>
+        <v>11.833333333333334</v>
       </c>
       <c r="G6" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:10.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:11.83</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1501,14 +1698,15 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>10.125</v>
+        <v>11.833333333333334</v>
       </c>
       <c r="G7" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1528,14 +1726,15 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>23.458333333333336</v>
+        <v>25.166666666666668</v>
       </c>
       <c r="G8" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:23.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:25.17</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1555,14 +1754,15 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>26.708333333333336</v>
+        <v>28.416666666666668</v>
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:26.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:28.42</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1580,14 +1780,15 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>26.708333333333336</v>
+        <v>28.416666666666668</v>
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1605,14 +1806,15 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>26.708333333333336</v>
+        <v>28.416666666666668</v>
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1632,14 +1834,15 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>29.375000000000004</v>
+        <v>31.083333333333336</v>
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:29.38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:31.08</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1657,14 +1860,15 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
-        <v>29.375000000000004</v>
+        <v>31.083333333333336</v>
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1684,14 +1888,15 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>32.708333333333336</v>
+        <v>34.416666666666671</v>
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:32.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:34.42</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1711,14 +1916,15 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>37.791666666666671</v>
+        <v>39.500000000000007</v>
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:37.79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:39.50</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1738,14 +1944,15 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>40.958333333333336</v>
+        <v>42.666666666666671</v>
       </c>
       <c r="G16" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:40.96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:42.67</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1763,14 +1970,15 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>40.958333333333336</v>
+        <v>42.666666666666671</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1790,14 +1998,15 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="2"/>
-        <v>42.75</v>
+        <v>44.458333333333336</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:42.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:44.46</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1817,14 +2026,15 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" si="2"/>
-        <v>48.333333333333336</v>
+        <v>50.041666666666671</v>
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:48.33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:50.04</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1844,14 +2054,15 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="2"/>
-        <v>54.791666666666671</v>
+        <v>56.500000000000007</v>
       </c>
       <c r="G20" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:54.79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>00:56.50</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1871,14 +2082,15 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="2"/>
-        <v>59.666666666666671</v>
+        <v>61.375000000000007</v>
       </c>
       <c r="G21" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>00:59.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:01.38</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1898,14 +2110,15 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="2"/>
-        <v>62.000000000000007</v>
+        <v>63.708333333333343</v>
       </c>
       <c r="G22" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:02.00</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:03.71</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1923,14 +2136,15 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="2"/>
-        <v>62.000000000000007</v>
+        <v>63.708333333333343</v>
       </c>
       <c r="G23" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1950,14 +2164,15 @@
       </c>
       <c r="F24" s="5">
         <f t="shared" si="2"/>
-        <v>65.625</v>
+        <v>67.333333333333343</v>
       </c>
       <c r="G24" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:05.63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:07.33</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1977,14 +2192,15 @@
       </c>
       <c r="F25" s="5">
         <f t="shared" si="2"/>
-        <v>66.916666666666671</v>
+        <v>68.625000000000014</v>
       </c>
       <c r="G25" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:06.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:08.63</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2004,14 +2220,15 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="2"/>
-        <v>71.5</v>
+        <v>73.208333333333343</v>
       </c>
       <c r="G26" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:11.50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:13.21</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2031,14 +2248,15 @@
       </c>
       <c r="F27" s="5">
         <f t="shared" si="2"/>
-        <v>78.416666666666671</v>
+        <v>80.125000000000014</v>
       </c>
       <c r="G27" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:18.42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:20.13</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2058,14 +2276,15 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="2"/>
-        <v>81.375</v>
+        <v>83.083333333333343</v>
       </c>
       <c r="G28" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:21.38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:23.08</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2085,14 +2304,15 @@
       </c>
       <c r="F29" s="5">
         <f t="shared" si="2"/>
-        <v>83.5</v>
+        <v>85.208333333333343</v>
       </c>
       <c r="G29" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:23.50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:25.21</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2110,14 +2330,15 @@
       </c>
       <c r="F30" s="5">
         <f t="shared" si="2"/>
-        <v>83.5</v>
+        <v>85.208333333333343</v>
       </c>
       <c r="G30" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2137,14 +2358,17 @@
       </c>
       <c r="F31" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G31" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:24.88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:26.58</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2162,14 +2386,15 @@
       </c>
       <c r="F32" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G32" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2187,14 +2412,15 @@
       </c>
       <c r="F33" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G33" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2212,14 +2438,15 @@
       </c>
       <c r="F34" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G34" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2237,14 +2464,15 @@
       </c>
       <c r="F35" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G35" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2262,14 +2490,15 @@
       </c>
       <c r="F36" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G36" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2287,14 +2516,15 @@
       </c>
       <c r="F37" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G37" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2312,14 +2542,15 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G38" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2337,14 +2568,15 @@
       </c>
       <c r="F39" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G39" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2362,14 +2594,15 @@
       </c>
       <c r="F40" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G40" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2387,14 +2620,15 @@
       </c>
       <c r="F41" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G41" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2412,14 +2646,15 @@
       </c>
       <c r="F42" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G42" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2437,14 +2672,15 @@
       </c>
       <c r="F43" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G43" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2462,14 +2698,15 @@
       </c>
       <c r="F44" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G44" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2487,14 +2724,15 @@
       </c>
       <c r="F45" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G45" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2512,14 +2750,15 @@
       </c>
       <c r="F46" s="5">
         <f t="shared" si="2"/>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="G46" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2539,14 +2778,15 @@
       </c>
       <c r="F47" s="5">
         <f t="shared" si="2"/>
-        <v>89.708333333333329</v>
+        <v>91.416666666666671</v>
       </c>
       <c r="G47" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:29.71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:31.42</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2566,14 +2806,15 @@
       </c>
       <c r="F48" s="5">
         <f t="shared" si="2"/>
-        <v>91.333333333333329</v>
+        <v>93.041666666666671</v>
       </c>
       <c r="G48" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:31.33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:33.04</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2593,14 +2834,15 @@
       </c>
       <c r="F49" s="5">
         <f t="shared" si="2"/>
-        <v>95.291666666666657</v>
+        <v>97</v>
       </c>
       <c r="G49" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:35.29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:37.00</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2618,14 +2860,15 @@
       </c>
       <c r="F50" s="5">
         <f t="shared" si="2"/>
-        <v>95.291666666666657</v>
+        <v>97</v>
       </c>
       <c r="G50" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2643,14 +2886,15 @@
       </c>
       <c r="F51" s="5">
         <f t="shared" si="2"/>
-        <v>95.291666666666657</v>
+        <v>97</v>
       </c>
       <c r="G51" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2668,14 +2912,15 @@
       </c>
       <c r="F52" s="5">
         <f t="shared" si="2"/>
-        <v>95.291666666666657</v>
+        <v>97</v>
       </c>
       <c r="G52" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2693,14 +2938,15 @@
       </c>
       <c r="F53" s="5">
         <f t="shared" si="2"/>
-        <v>95.291666666666657</v>
+        <v>97</v>
       </c>
       <c r="G53" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2720,14 +2966,15 @@
       </c>
       <c r="F54" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G54" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>01:36.71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>01:38.42</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -2745,14 +2992,15 @@
       </c>
       <c r="F55" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G55" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -2770,14 +3018,15 @@
       </c>
       <c r="F56" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G56" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -2795,14 +3044,15 @@
       </c>
       <c r="F57" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G57" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -2820,14 +3070,15 @@
       </c>
       <c r="F58" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G58" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -2845,14 +3096,15 @@
       </c>
       <c r="F59" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G59" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -2870,14 +3122,15 @@
       </c>
       <c r="F60" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G60" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -2895,14 +3148,15 @@
       </c>
       <c r="F61" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G61" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -2920,14 +3174,15 @@
       </c>
       <c r="F62" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G62" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -2945,14 +3200,15 @@
       </c>
       <c r="F63" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G63" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -2970,14 +3226,15 @@
       </c>
       <c r="F64" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G64" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -2995,14 +3252,15 @@
       </c>
       <c r="F65" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G65" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3015,19 +3273,20 @@
         <v>0</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" ref="E66:E97" si="6">IF(D66=0,"",_xlfn.CONCAT(TEXT(INT(D66/60),"00"),":",TEXT(MOD(D66,60),"00.00")))</f>
+        <f t="shared" ref="E66:E82" si="6">IF(D66=0,"",_xlfn.CONCAT(TEXT(INT(D66/60),"00"),":",TEXT(MOD(D66,60),"00.00")))</f>
         <v/>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G66" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3045,14 +3304,15 @@
       </c>
       <c r="F67" s="5">
         <f t="shared" si="2"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G67" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3070,14 +3330,15 @@
       </c>
       <c r="F68" s="5">
         <f t="shared" ref="F68:F81" si="7">F67+D68</f>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G68" s="7" t="str">
         <f t="shared" ref="G68:G81" si="8">IF(D68=0,"",_xlfn.CONCAT(TEXT(INT(F68/60),"00"),":",TEXT(MOD(F68,60),"00.00")))</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -3095,14 +3356,15 @@
       </c>
       <c r="F69" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G69" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3120,14 +3382,15 @@
       </c>
       <c r="F70" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G70" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -3145,14 +3408,15 @@
       </c>
       <c r="F71" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G71" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -3170,14 +3434,15 @@
       </c>
       <c r="F72" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G72" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -3195,14 +3460,15 @@
       </c>
       <c r="F73" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G73" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -3220,14 +3486,15 @@
       </c>
       <c r="F74" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G74" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -3245,14 +3512,15 @@
       </c>
       <c r="F75" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G75" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -3270,14 +3538,15 @@
       </c>
       <c r="F76" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G76" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -3295,14 +3564,15 @@
       </c>
       <c r="F77" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G77" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -3320,14 +3590,15 @@
       </c>
       <c r="F78" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G78" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -3345,14 +3616,15 @@
       </c>
       <c r="F79" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G79" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -3370,14 +3642,15 @@
       </c>
       <c r="F80" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G80" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -3395,14 +3668,15 @@
       </c>
       <c r="F81" s="5">
         <f t="shared" si="7"/>
-        <v>96.708333333333329</v>
+        <v>98.416666666666671</v>
       </c>
       <c r="G81" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <f>COUNT(A2:A81)</f>
         <v>80</v>
@@ -3412,31 +3686,43 @@
       </c>
       <c r="C82" s="13">
         <f>SUM(C2:C42)</f>
-        <v>2037</v>
+        <v>2078</v>
       </c>
       <c r="D82" s="14">
         <f>SUM(D2:D42)</f>
-        <v>84.875</v>
+        <v>86.583333333333343</v>
       </c>
       <c r="E82" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>01:24.88</v>
+        <v>01:26.58</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="16"/>
+      <c r="H82" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C81">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="2">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H81">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(H2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="F2:F4 F5:F81" formula="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Tiempos_Escenas.xlsx
+++ b/Tiempos_Escenas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pablo\Andrea\USFQ\Titulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905B96A1-4E9F-41AB-A71C-ADC4F6E8BD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641BF5DB-5138-40D0-B5E6-0CE4567350AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7479791D-AF98-4B48-9BA8-5A6EBE4D9B1A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="107">
   <si>
     <t>Escenas</t>
   </si>
@@ -521,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,40 +568,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="18">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -941,13 +916,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -957,6 +925,13 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1000,119 +975,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1138,9 +1000,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Escenas_style" pivot="0" count="3" xr9:uid="{2A99205D-6212-4C05-8828-38A2C5030BE6}">
-      <tableStyleElement type="headerRow" dxfId="30"/>
-      <tableStyleElement type="totalRow" dxfId="29"/>
-      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1155,19 +1017,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D524042-5AAD-4EFE-A25F-7BF55D11B420}" name="Table2" displayName="Table2" ref="A1:H82" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D524042-5AAD-4EFE-A25F-7BF55D11B420}" name="Table2" displayName="Table2" ref="A1:H82" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:H82" xr:uid="{8D524042-5AAD-4EFE-A25F-7BF55D11B420}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EEB0F2DB-5A60-45E2-B42A-7F3A777A60FD}" name="Column1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{366908A8-A1EE-4A6A-84F5-5A7E1B687F76}" name="Escenas" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{F1850ADF-8A29-4D65-A2DF-6BCB825069D9}" name="Frames" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{8D6B2F7F-5281-49B3-9FFD-4F7E12628708}" name="Seg" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{445C2CF8-A5A5-4A8A-B64A-B0A91BA13D34}" name="Tiempo" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{EEB0F2DB-5A60-45E2-B42A-7F3A777A60FD}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{366908A8-A1EE-4A6A-84F5-5A7E1B687F76}" name="Escenas" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F1850ADF-8A29-4D65-A2DF-6BCB825069D9}" name="Frames" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8D6B2F7F-5281-49B3-9FFD-4F7E12628708}" name="Seg" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{445C2CF8-A5A5-4A8A-B64A-B0A91BA13D34}" name="Tiempo" dataDxfId="6">
       <calculatedColumnFormula>IF(D2=0,"",_xlfn.CONCAT(TEXT(INT(D2/60),"00"),":",TEXT(MOD(D2,60),"00.00")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53E24129-A6A4-4D4A-9FB0-A2036B18656E}" name="SegTr" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{89D4FAB2-8B5E-4C99-A020-3A3C601CAF35}" name="Transcurrido" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{521AEA72-C192-4798-A8AA-4A0EA4F73489}" name="CleanUp" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{53E24129-A6A4-4D4A-9FB0-A2036B18656E}" name="SegTr" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{89D4FAB2-8B5E-4C99-A020-3A3C601CAF35}" name="Transcurrido" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{521AEA72-C192-4798-A8AA-4A0EA4F73489}" name="CleanUp" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Escenas_style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1499,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C6AA15-B2AD-42A1-BDDC-F5ADA737CF93}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1399,7 @@
       <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="9" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1650,7 +1512,9 @@
         <f t="shared" si="3"/>
         <v>00:09.17</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -3685,16 +3549,16 @@
         <v>6</v>
       </c>
       <c r="C82" s="13">
-        <f>SUM(C2:C42)</f>
-        <v>2078</v>
+        <f>SUM(C2:C81)</f>
+        <v>2362</v>
       </c>
       <c r="D82" s="14">
-        <f>SUM(D2:D42)</f>
-        <v>86.583333333333343</v>
+        <f>SUM(D2:D81)</f>
+        <v>98.416666666666671</v>
       </c>
       <c r="E82" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>01:26.58</v>
+        <v>01:38.42</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="16"/>
@@ -3702,18 +3566,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C81">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="2">
-      <formula>LEN(TRIM(I2))&gt;0</formula>
+  <conditionalFormatting sqref="H2:H81">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H81">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
